--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Qte commande</t>
   </si>
   <si>
-    <t>gg</t>
+    <t>IPHONE NADI</t>
   </si>
 </sst>
 </file>
@@ -78,14 +78,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.8515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.91015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.14453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.80078125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.3046875" customWidth="true" bestFit="true"/>
   </cols>
@@ -112,10 +112,24 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>54.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>

--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -78,7 +78,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -115,21 +115,7 @@
         <v>10.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
